--- a/2nd project/Checklists and test cases.xlsx
+++ b/2nd project/Checklists and test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_portfolio\Maximov_Projects\2nd project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D266DD25-32F6-426F-B10F-CA5495D33CF1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE5FEC4-BB04-4419-8325-B2B012A1EEC6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7068" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Часть 1. Чек-лист на вёрстку" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="278">
   <si>
     <t>Чек-лист и результаты выполнения тестов: тестирование вёрстки</t>
   </si>
@@ -502,102 +502,30 @@
     <t>Проверка поля ввода номера карты</t>
   </si>
   <si>
-    <t xml:space="preserve">Выполнить ввод номера карты из 6 цифр - 123412 , проверить, что поле не принимает ввод </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнить ввод номера карты из 1 цифры - 1  , проверить, что поле не принимает ввод </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнить ввод номера карты из 2 цифр - 12 , проверить, что поле не принимает ввод </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнить ввод номера карты из 10 цифр - 1234123412, проверить,  что поле не принимает ввод </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнить ввод номера карты из 11 цифр - 12341234123, проверить,  что поле не принимает ввод </t>
-  </si>
-  <si>
-    <t>Выполнить ввод номера карты из 13 цифр - 1234123412341, проверить, что поле не принимает ввод</t>
-  </si>
-  <si>
     <t xml:space="preserve">Выполнить ввод номера карты из 13 цифр - 1234123412341, проверить, что система не дает ввести больше 12 символов </t>
   </si>
   <si>
     <t>https://drumadru.youtrack.cloud/issue/YQA28-34/V-Yandeks.Marshruty-v-forme-bronirovaniya-karsheringa-v-okne-Dobavlenie-karty-pri-vvode-dannyh-v-pole-Nomer-karty-sistema</t>
   </si>
   <si>
-    <t xml:space="preserve">Выполнить ввод номера карты из 14 цифр - 12341234123412, проверить, что поле не принимает ввод </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнить ввод номера карты из 15 цифр - 123412341234123, проверить,  что поле не принимает ввод </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнить ввод номера карты в формате nnnn nnnn nnnn,без пробелов, где nnnn - 5555 - 555555555555 , проверить, что поле принимает ввод </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнить ввод номера карты в формате nnnn nnnn nnnn, без пробелов, где nnnn - 0000 - 000000000000, проверить,  что поле принимает ввод </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнить ввод номера карты в формате nnnn nnnn nnnn, без проебелов, где nnnn - 0001 - 000100010001, проверить,  что поле принимает ввод </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнить ввод номера карты в формате nnnn nnnn nnnn,без пробелов, где nnnn - 9998 - 999899989998, проверить что поле принимает ввод </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнить ввод номера карты в формате nnnn nnnn nnnn,без пробелов, где nnnn - 9999 - 999999999999, проверить,  что поле принимает ввод </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнить ввод номера карты в формате nnnn nnnn nnnn,с пробелами, 1234 1234 1234, проверить, что поле принимает ввод </t>
-  </si>
-  <si>
     <t>https://drumadru.youtrack.cloud/issue/YQA28-32/V-Yandeks.Marshruty-v-forme-bronirovaniya-karsheringa-v-okne-Dobavlenie-karty-pri-vvode-nomera-karty-bez-probelov-sistema-ne</t>
   </si>
   <si>
-    <t xml:space="preserve">Выполнить ввод номера карты с буквой русского алфавита - 1а3412341234, проверить,что поле не принимает ввод </t>
-  </si>
-  <si>
     <t>Выполнить ввод номера карты с буквой русского алфавита - 1а3412341234, проверить,что система не дает вводить иные символы или цифры, которые не входят в диапазон требований</t>
   </si>
   <si>
-    <t xml:space="preserve">Выполнить ввод номера карты с тире - -23412341234, проверить, что поле не принимает ввод </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполинть ввод номера карты с точкой - 1.3412341234, проверить, что поле не принимает ввод </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполинть ввод номера карты с запятой - 1,3412341234, проверить, что поле не принимает ввод </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполинть ввод номера карты со спецсимволом- 1@3412341234, что поле не принимает ввод </t>
-  </si>
-  <si>
     <t>Проверка поля ввода кода</t>
   </si>
   <si>
-    <t xml:space="preserve">Выполнить ввод номера кода из 5 цифр - 12345 , проверить, что поле не принимает ввод </t>
-  </si>
-  <si>
     <t>Выполнить ввод номера кода из 5 цифр - 12345 , проверить, что система не дает ввести больше 2 символов</t>
   </si>
   <si>
     <t>https://drumadru.youtrack.cloud/issue/YQA28-35/V-Yandeks.Marshruty-v-forme-bronirovaniya-karsheringa-v-okne-Dobavlenie-karty-pri-vvode-dannyh-v-pole-Kod-sistema-pozvolyaet</t>
   </si>
   <si>
-    <t xml:space="preserve">Выполнить ввод номера кода из 3 цифр - 123, проверить, что поле не принимает ввод </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнить ввод номера кода из 4 цифр - 1234, проверить, что поле не принимает ввод </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнить ввод номера кода из 1 цифры - 1, проверить, что поле не принимает ввод </t>
-  </si>
-  <si>
     <t>Выполнить ввод номера кода в формате nn, где nn от 01 до 99 - 55, проверить, что поле принимет ввод</t>
   </si>
   <si>
-    <t>Выполнить ввод номера кода в формате nn, где nn =00 - 00, проверить, что поле не принимет ввод</t>
-  </si>
-  <si>
     <t>https://drumadru.youtrack.cloud/issue/YQA28-12/V-Yandeks.Marshruty-v-forme-bronirovaniya-karsheringa-pri-dobavlenie-bankovskoj-karty-pole-Kod-prinimaet-vvod-00</t>
   </si>
   <si>
@@ -613,16 +541,7 @@
     <t>Выполнить ввод номера кода в формате nn, где nn от 01 до 99 - 99, проверить, что поле принимет ввод</t>
   </si>
   <si>
-    <t>Выполнить ввод номера кода в формате nn, где nn &gt;=100 -100, проверить, что поле код не принимает ввод</t>
-  </si>
-  <si>
-    <t>Выполнить ввод номера кода в формате nn, где nn &gt;=100 -101 проверить, что поле код не принимает ввод</t>
-  </si>
-  <si>
     <t>Выполнить ввод номера кода с буквой русского алафавита - 1а, проверить, что поле не принимет ввод</t>
-  </si>
-  <si>
-    <t>Выполнить ввод номера кода с буквой русского алафавита - 1а, проверить, что система не дает вводить иные символы или цифры, которые не входят в диапазон требований</t>
   </si>
   <si>
     <t>Выполнить ввод номера кода c тире -  -1, проверить, что поле не принимет ввод</t>
@@ -905,9 +824,6 @@
     <t>Проверить, что после нажатия на кнопку "Привязать" в открывшемся окне "Способ оплаты" появляется новая карта с последними 4 цифрами номера</t>
   </si>
   <si>
-    <t xml:space="preserve">Выполнить ввод номера карты в формате nnnn nnnn nnnn,без пробелов, 123412341234, проверить, что поле принимает ввод и система ставит пробелы автоматически </t>
-  </si>
-  <si>
     <t>1. Перейти на тестовый стенд Яндекс.Маршруты
 2. Ввести в поле Откуда "Хамовнический вал, 18"
 3. Ввести в поле Куда "Усачева, 3"
@@ -920,6 +836,93 @@
   </si>
   <si>
     <t>В открывшемся окне с заголовком "Машина забронирована" нажать на крестик, под которым расположена надпись "Отменить"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить ввод номера карты из 6 цифр - 123412 , проверить, что поле не принимает ввод, появляется сообщение об ошибке. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить ввод номера карты из 1 цифры - 1  , проверить, что поле не принимает ввод, появляется сообщение об ошибке.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить ввод номера карты из 2 цифр - 12 , проверить, что поле не принимает ввод, появляется сообщение об ошибке.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить ввод номера карты из 10 цифр - 1234123412, проверить,  что поле не принимает ввод, появляется сообщение об ошибке.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить ввод номера карты из 11 цифр - 12341234123, проверить,  что поле не принимает ввод, появляется сообщение об ошибке.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить ввод номера карты из 13 цифр - 1234123412341, проверить, что поле не принимает ввод, появляется сообщение об ошибке.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить ввод номера карты из 14 цифр - 12341234123412, проверить, что поле не принимает ввод, появляется сообщение об ошибке.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить ввод номера карты из 15 цифр - 123412341234123, проверить,  что поле не принимает ввод, появляется сообщение об ошибке.   </t>
+  </si>
+  <si>
+    <t>Выполнить ввод номера карты в формате nnnn nnnn nnnn,без пробелов, где nnnn - 5555 - 555555555555 , проверить, что поле принимает ввод, сообщение об ошибке не появляется.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить ввод номера карты в формате nnnn nnnn nnnn, без пробелов, где nnnn - 0000 - 000000000000, проверить,  что поле принимает ввод, сообщение об ошибке не появляется. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить ввод номера карты в формате nnnn nnnn nnnn, без проебелов, где nnnn - 0001 - 000100010001, проверить,  что поле принимает ввод, сообщение об ошибке не появляется. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить ввод номера карты в формате nnnn nnnn nnnn,без пробелов, где nnnn - 9998 - 999899989998, проверить что поле принимает ввод, сообщение об ошибке не появляется. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить ввод номера карты в формате nnnn nnnn nnnn,без пробелов, где nnnn - 9999 - 999999999999, проверить,  что поле принимает ввод, сообщение об ошибке не появляется. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить ввод номера карты в формате nnnn nnnn nnnn,с пробелами, 1234 1234 1234, проверить, что поле принимает ввод, сообщение об ошибке не появляется. </t>
+  </si>
+  <si>
+    <t>Выполнить ввод номера карты в формате nnnn nnnn nnnn,без пробелов, 123412341234, проверить, что поле принимает ввод и система ставит пробелы автоматически.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить ввод номера карты с буквой русского алфавита - 1а3412341234, проверить,что поле не принимает ввод, появляется сообщение об ошибке. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить ввод номера карты с тире - -23412341234, проверить, что поле не принимает ввод, появляется сообщение об ошибке.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполинть ввод номера карты с точкой - 1.3412341234, проверить, что поле не принимает ввод, появляется сообщение об ошибке.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполинть ввод номера карты с запятой - 1,3412341234, проверить, что поле не принимает ввод, появляется сообщение об ошибке.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполинть ввод номера карты со спецсимволом- 1@3412341234, что поле не принимает ввод, появляется сообщение об ошибке.  </t>
+  </si>
+  <si>
+    <t>Выполнить ввод номера кода из 5 цифр - 12345 , проверить, что поле не принимает ввод, появляется сообщение об ошибке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить ввод номера кода из 3 цифр - 123, проверить, что поле не принимает ввод, появляется сообщение об ошибке </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить ввод номера кода из 4 цифр - 1234, проверить, что поле не принимает ввод, появляется сообщение об ошибке </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить ввод номера кода из 1 цифры - 1, проверить, что поле не принимает ввод, появляется сообщение об ошибке </t>
+  </si>
+  <si>
+    <t>Выполнить ввод номера кода в формате nn, где nn =00 - 00, проверить, что поле не принимет ввод, появляется сообщение об ошибке</t>
+  </si>
+  <si>
+    <t>Выполнить ввод номера кода в формате nn, где nn &gt;=100 -100, проверить, что поле код не принимает ввод, появляется сообщение об ошибке</t>
+  </si>
+  <si>
+    <t>Выполнить ввод номера кода в формате nn, где nn &gt;=100 -100, проверить, что система не дает вводить в поле код цифры, которые не входят в диапазон требований</t>
+  </si>
+  <si>
+    <t>Выполнить ввод номера кода с буквой русского алафавита - 1а, проверить, что система не дает вводить в поле код цифры иные символ, кроме цифр, входящие в диапазон требований</t>
+  </si>
+  <si>
+    <t>Выполнить ввод номера кода в формате nn, где nn &gt;=100 -101 проверить, что поле код не принимает ввод, появляется сообщение об ошибке</t>
   </si>
 </sst>
 </file>
@@ -1357,9 +1360,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1403,75 +1403,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1491,28 +1423,16 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1535,6 +1455,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1544,6 +1533,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1552,6 +1547,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1773,31 +1774,31 @@
   </sheetPr>
   <dimension ref="A1:K1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.90625" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" customWidth="1"/>
-    <col min="3" max="3" width="120.1796875" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
-    <col min="6" max="6" width="81.90625" customWidth="1"/>
-    <col min="7" max="7" width="30.08984375" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="120.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="81.88671875" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1807,7 +1808,7 @@
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
@@ -1831,7 +1832,7 @@
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="80" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1846,11 +1847,11 @@
       <c r="F4" s="7"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="77"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1863,11 +1864,11 @@
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1880,11 +1881,11 @@
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="78"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1897,11 +1898,11 @@
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="80" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1920,7 +1921,7 @@
       <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="77"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1936,7 +1937,7 @@
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="78"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1952,7 +1953,7 @@
       <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="80" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1970,7 +1971,7 @@
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="77"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
@@ -1986,7 +1987,7 @@
       <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="78"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="8" t="s">
         <v>20</v>
       </c>
@@ -2002,7 +2003,7 @@
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="76" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -2020,7 +2021,7 @@
       <c r="A15" s="8">
         <v>12</v>
       </c>
-      <c r="B15" s="79"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="8" t="s">
         <v>23</v>
       </c>
@@ -2036,7 +2037,7 @@
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="80"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="8" t="s">
         <v>24</v>
       </c>
@@ -2052,7 +2053,7 @@
       <c r="A17" s="8">
         <v>14</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="71" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -2070,7 +2071,7 @@
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="79"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="14" t="s">
         <v>27</v>
       </c>
@@ -2086,7 +2087,7 @@
       <c r="A19" s="8">
         <v>16</v>
       </c>
-      <c r="B19" s="79"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="14" t="s">
         <v>28</v>
       </c>
@@ -2100,11 +2101,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="79"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="17" t="s">
         <v>31</v>
       </c>
@@ -2120,7 +2121,7 @@
       <c r="A21" s="8">
         <v>18</v>
       </c>
-      <c r="B21" s="79"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="17" t="s">
         <v>32</v>
       </c>
@@ -2134,11 +2135,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="79"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="17" t="s">
         <v>34</v>
       </c>
@@ -2152,11 +2153,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>20</v>
       </c>
-      <c r="B23" s="79"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="17" t="s">
         <v>36</v>
       </c>
@@ -2172,7 +2173,7 @@
       <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="79"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="17" t="s">
         <v>37</v>
       </c>
@@ -2186,11 +2187,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>22</v>
       </c>
-      <c r="B25" s="79"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="14" t="s">
         <v>38</v>
       </c>
@@ -2202,11 +2203,11 @@
       </c>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>23</v>
       </c>
-      <c r="B26" s="79"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="17" t="s">
         <v>39</v>
       </c>
@@ -2218,11 +2219,11 @@
       </c>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>24</v>
       </c>
-      <c r="B27" s="80"/>
+      <c r="B27" s="73"/>
       <c r="C27" s="17" t="s">
         <v>40</v>
       </c>
@@ -2236,11 +2237,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>25</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="71" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -2254,11 +2255,11 @@
       </c>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>26</v>
       </c>
-      <c r="B29" s="79"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="17" t="s">
         <v>43</v>
       </c>
@@ -2274,7 +2275,7 @@
       <c r="A30" s="4">
         <v>27</v>
       </c>
-      <c r="B30" s="79"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="17" t="s">
         <v>44</v>
       </c>
@@ -2286,11 +2287,11 @@
       </c>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>28</v>
       </c>
-      <c r="B31" s="79"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="17" t="s">
         <v>45</v>
       </c>
@@ -2304,11 +2305,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>29</v>
       </c>
-      <c r="B32" s="79"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="17" t="s">
         <v>47</v>
       </c>
@@ -2320,11 +2321,11 @@
       </c>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>30</v>
       </c>
-      <c r="B33" s="79"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="17" t="s">
         <v>48</v>
       </c>
@@ -2336,11 +2337,11 @@
       </c>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>31</v>
       </c>
-      <c r="B34" s="80"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="17" t="s">
         <v>49</v>
       </c>
@@ -2358,7 +2359,7 @@
       <c r="A35" s="8">
         <v>32</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="71" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="14" t="s">
@@ -2376,7 +2377,7 @@
       <c r="A36" s="4">
         <v>33</v>
       </c>
-      <c r="B36" s="79"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="14" t="s">
         <v>53</v>
       </c>
@@ -2388,11 +2389,11 @@
       </c>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>34</v>
       </c>
-      <c r="B37" s="79"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="17" t="s">
         <v>54</v>
       </c>
@@ -2410,7 +2411,7 @@
       <c r="A38" s="4">
         <v>35</v>
       </c>
-      <c r="B38" s="79"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="14" t="s">
         <v>56</v>
       </c>
@@ -2422,11 +2423,11 @@
       </c>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>36</v>
       </c>
-      <c r="B39" s="79"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="17" t="s">
         <v>57</v>
       </c>
@@ -2438,11 +2439,11 @@
       </c>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>37</v>
       </c>
-      <c r="B40" s="79"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="17" t="s">
         <v>58</v>
       </c>
@@ -2454,11 +2455,11 @@
       </c>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>38</v>
       </c>
-      <c r="B41" s="79"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="17" t="s">
         <v>59</v>
       </c>
@@ -2470,11 +2471,11 @@
       </c>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>39</v>
       </c>
-      <c r="B42" s="79"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="17" t="s">
         <v>60</v>
       </c>
@@ -2486,11 +2487,11 @@
       </c>
       <c r="F42" s="13"/>
     </row>
-    <row r="43" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>40</v>
       </c>
-      <c r="B43" s="79"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="17" t="s">
         <v>61</v>
       </c>
@@ -2502,11 +2503,11 @@
       </c>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>41</v>
       </c>
-      <c r="B44" s="79"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="17" t="s">
         <v>62</v>
       </c>
@@ -2518,11 +2519,11 @@
       </c>
       <c r="F44" s="13"/>
     </row>
-    <row r="45" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>42</v>
       </c>
-      <c r="B45" s="80"/>
+      <c r="B45" s="73"/>
       <c r="C45" s="17" t="s">
         <v>63</v>
       </c>
@@ -2534,11 +2535,11 @@
       </c>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="71" t="s">
         <v>64</v>
       </c>
       <c r="C46" s="14" t="s">
@@ -2554,11 +2555,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>44</v>
       </c>
-      <c r="B47" s="79"/>
+      <c r="B47" s="72"/>
       <c r="C47" s="17" t="s">
         <v>67</v>
       </c>
@@ -2570,11 +2571,11 @@
       </c>
       <c r="F47" s="13"/>
     </row>
-    <row r="48" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45</v>
       </c>
-      <c r="B48" s="79"/>
+      <c r="B48" s="72"/>
       <c r="C48" s="14" t="s">
         <v>68</v>
       </c>
@@ -2586,11 +2587,11 @@
       </c>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>46</v>
       </c>
-      <c r="B49" s="79"/>
+      <c r="B49" s="72"/>
       <c r="C49" s="17" t="s">
         <v>69</v>
       </c>
@@ -2602,11 +2603,11 @@
       </c>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>47</v>
       </c>
-      <c r="B50" s="79"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="17" t="s">
         <v>70</v>
       </c>
@@ -2618,11 +2619,11 @@
       </c>
       <c r="F50" s="13"/>
     </row>
-    <row r="51" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>48</v>
       </c>
-      <c r="B51" s="79"/>
+      <c r="B51" s="72"/>
       <c r="C51" s="17" t="s">
         <v>71</v>
       </c>
@@ -2634,11 +2635,11 @@
       </c>
       <c r="F51" s="13"/>
     </row>
-    <row r="52" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>49</v>
       </c>
-      <c r="B52" s="79"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="17" t="s">
         <v>72</v>
       </c>
@@ -2652,11 +2653,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>50</v>
       </c>
-      <c r="B53" s="80"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="17" t="s">
         <v>74</v>
       </c>
@@ -2672,7 +2673,7 @@
       <c r="A54" s="4">
         <v>51</v>
       </c>
-      <c r="B54" s="60" t="s">
+      <c r="B54" s="76" t="s">
         <v>75</v>
       </c>
       <c r="C54" s="21" t="s">
@@ -2688,11 +2689,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>52</v>
       </c>
-      <c r="B55" s="80"/>
+      <c r="B55" s="73"/>
       <c r="C55" s="21" t="s">
         <v>78</v>
       </c>
@@ -2708,7 +2709,7 @@
       <c r="A56" s="4">
         <v>53</v>
       </c>
-      <c r="B56" s="60" t="s">
+      <c r="B56" s="76" t="s">
         <v>79</v>
       </c>
       <c r="C56" s="21" t="s">
@@ -2722,11 +2723,11 @@
       </c>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="43.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>54</v>
       </c>
-      <c r="B57" s="80"/>
+      <c r="B57" s="73"/>
       <c r="C57" s="21" t="s">
         <v>81</v>
       </c>
@@ -2742,7 +2743,7 @@
       <c r="A58" s="4">
         <v>55</v>
       </c>
-      <c r="B58" s="60" t="s">
+      <c r="B58" s="76" t="s">
         <v>82</v>
       </c>
       <c r="C58" s="21" t="s">
@@ -2758,11 +2759,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>56</v>
       </c>
-      <c r="B59" s="80"/>
+      <c r="B59" s="73"/>
       <c r="C59" s="21" t="s">
         <v>85</v>
       </c>
@@ -2774,7 +2775,7 @@
       </c>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:6" ht="50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>57</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>58</v>
       </c>
@@ -2814,11 +2815,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>59</v>
       </c>
-      <c r="B62" s="61" t="s">
+      <c r="B62" s="71" t="s">
         <v>93</v>
       </c>
       <c r="C62" s="24" t="s">
@@ -2832,265 +2833,265 @@
       </c>
       <c r="F62" s="13"/>
     </row>
-    <row r="63" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>60</v>
       </c>
-      <c r="B63" s="79"/>
+      <c r="B63" s="72"/>
       <c r="C63" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="86" t="s">
+      <c r="D63" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="59" t="s">
         <v>9</v>
       </c>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A64" s="81">
+    <row r="64" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="54">
         <v>61</v>
       </c>
-      <c r="B64" s="87" t="s">
+      <c r="B64" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="88" t="s">
+      <c r="C64" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="D64" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="82"/>
-    </row>
-    <row r="65" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A65" s="81">
+      <c r="D64" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="55"/>
+    </row>
+    <row r="65" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A65" s="54">
         <v>62</v>
       </c>
-      <c r="B65" s="90"/>
-      <c r="C65" s="88" t="s">
+      <c r="B65" s="75"/>
+      <c r="C65" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="D65" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="82"/>
-    </row>
-    <row r="66" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A66" s="81">
+      <c r="D65" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="55"/>
+    </row>
+    <row r="66" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A66" s="54">
         <v>63</v>
       </c>
-      <c r="B66" s="90"/>
-      <c r="C66" s="88" t="s">
+      <c r="B66" s="75"/>
+      <c r="C66" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="D66" s="91" t="s">
+      <c r="D66" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="E66" s="91" t="s">
+      <c r="E66" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="F66" s="83" t="s">
+      <c r="F66" s="56" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A67" s="81">
+    <row r="67" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A67" s="54">
         <v>64</v>
       </c>
-      <c r="B67" s="90"/>
-      <c r="C67" s="88" t="s">
+      <c r="B67" s="75"/>
+      <c r="C67" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="D67" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="82"/>
-    </row>
-    <row r="68" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A68" s="81">
+      <c r="D67" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="55"/>
+    </row>
+    <row r="68" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A68" s="54">
         <v>65</v>
       </c>
-      <c r="B68" s="90"/>
-      <c r="C68" s="88" t="s">
+      <c r="B68" s="75"/>
+      <c r="C68" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="D68" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="82"/>
-    </row>
-    <row r="69" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A69" s="81">
+      <c r="D68" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="55"/>
+    </row>
+    <row r="69" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="54">
         <v>66</v>
       </c>
-      <c r="B69" s="90"/>
-      <c r="C69" s="88" t="s">
+      <c r="B69" s="75"/>
+      <c r="C69" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="D69" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="82"/>
+      <c r="D69" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="55"/>
     </row>
     <row r="70" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="81">
+      <c r="A70" s="54">
         <v>67</v>
       </c>
-      <c r="B70" s="90"/>
-      <c r="C70" s="88" t="s">
+      <c r="B70" s="75"/>
+      <c r="C70" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="D70" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="82"/>
-    </row>
-    <row r="71" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="81">
+      <c r="D70" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="55"/>
+    </row>
+    <row r="71" spans="1:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="54">
         <v>68</v>
       </c>
-      <c r="B71" s="90"/>
-      <c r="C71" s="88" t="s">
+      <c r="B71" s="75"/>
+      <c r="C71" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="D71" s="91" t="s">
+      <c r="D71" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="E71" s="91" t="s">
+      <c r="E71" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="F71" s="83" t="s">
+      <c r="F71" s="56" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="81">
+    <row r="72" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A72" s="54">
         <v>69</v>
       </c>
-      <c r="B72" s="92" t="s">
+      <c r="B72" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="C72" s="88" t="s">
+      <c r="C72" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="D72" s="91" t="s">
+      <c r="D72" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="E72" s="91" t="s">
+      <c r="E72" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="F72" s="83" t="s">
+      <c r="F72" s="56" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="81">
+    <row r="73" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A73" s="54">
         <v>70</v>
       </c>
-      <c r="B73" s="90"/>
-      <c r="C73" s="88" t="s">
+      <c r="B73" s="75"/>
+      <c r="C73" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="D73" s="91" t="s">
+      <c r="D73" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="E73" s="91" t="s">
+      <c r="E73" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="F73" s="84" t="s">
+      <c r="F73" s="57" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="81">
+    <row r="74" spans="1:6" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="54">
         <v>71</v>
       </c>
-      <c r="B74" s="92" t="s">
+      <c r="B74" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="88" t="s">
+      <c r="C74" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="D74" s="91" t="s">
+      <c r="D74" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="E74" s="91" t="s">
+      <c r="E74" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="F74" s="84" t="s">
+      <c r="F74" s="57" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A75" s="81">
+    <row r="75" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A75" s="54">
         <v>72</v>
       </c>
-      <c r="B75" s="90"/>
-      <c r="C75" s="88" t="s">
+      <c r="B75" s="75"/>
+      <c r="C75" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="D75" s="91" t="s">
+      <c r="D75" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="E75" s="91" t="s">
+      <c r="E75" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="F75" s="84" t="s">
+      <c r="F75" s="57" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A76" s="81">
+    <row r="76" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A76" s="54">
         <v>73</v>
       </c>
-      <c r="B76" s="90"/>
-      <c r="C76" s="88" t="s">
+      <c r="B76" s="75"/>
+      <c r="C76" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D76" s="91" t="s">
+      <c r="D76" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="E76" s="91" t="s">
+      <c r="E76" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="F76" s="84" t="s">
+      <c r="F76" s="57" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A77" s="81">
+    <row r="77" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A77" s="54">
         <v>74</v>
       </c>
-      <c r="B77" s="90"/>
-      <c r="C77" s="88" t="s">
+      <c r="B77" s="75"/>
+      <c r="C77" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="D77" s="91" t="s">
+      <c r="D77" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="E77" s="91" t="s">
+      <c r="E77" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="F77" s="85" t="s">
+      <c r="F77" s="58" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4033,6 +4034,11 @@
     <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B27"/>
     <mergeCell ref="B28:B34"/>
     <mergeCell ref="B72:B73"/>
@@ -4044,11 +4050,6 @@
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="B64:B71"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4084,33 +4085,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K882"/>
+  <dimension ref="A1:K883"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.90625" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="111.90625" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="51.7265625" customWidth="1"/>
-    <col min="6" max="6" width="21.36328125" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" customWidth="1"/>
-    <col min="12" max="12" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="111.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="51.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -4125,7 +4126,7 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
     </row>
-    <row r="3" spans="1:11" ht="52" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
@@ -4143,11 +4144,11 @@
       </c>
       <c r="F3" s="29"/>
     </row>
-    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>1</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="87" t="s">
         <v>122</v>
       </c>
       <c r="C4" s="31" t="s">
@@ -4160,11 +4161,11 @@
       <c r="F4" s="33"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>2</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="31" t="s">
         <v>124</v>
       </c>
@@ -4179,7 +4180,7 @@
       <c r="A6" s="30">
         <v>3</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="17" t="s">
         <v>125</v>
       </c>
@@ -4193,7 +4194,7 @@
       <c r="A7" s="30">
         <v>4</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="17" t="s">
         <v>126</v>
       </c>
@@ -4207,7 +4208,7 @@
       <c r="A8" s="30">
         <v>5</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="76" t="s">
         <v>127</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -4223,7 +4224,7 @@
       <c r="A9" s="30">
         <v>6</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="21" t="s">
         <v>129</v>
       </c>
@@ -4237,9 +4238,9 @@
       <c r="A10" s="30">
         <v>7</v>
       </c>
-      <c r="B10" s="58"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="17" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>29</v>
@@ -4253,7 +4254,7 @@
       <c r="A11" s="30">
         <v>8</v>
       </c>
-      <c r="B11" s="58"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="17" t="s">
         <v>131</v>
       </c>
@@ -4263,11 +4264,11 @@
       <c r="E11" s="37"/>
       <c r="F11" s="33"/>
     </row>
-    <row r="12" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>9</v>
       </c>
-      <c r="B12" s="58"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="17" t="s">
         <v>132</v>
       </c>
@@ -4281,7 +4282,7 @@
       <c r="A13" s="30">
         <v>10</v>
       </c>
-      <c r="B13" s="58"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="17" t="s">
         <v>133</v>
       </c>
@@ -4297,7 +4298,7 @@
       <c r="A14" s="30">
         <v>11</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="17" t="s">
         <v>135</v>
       </c>
@@ -4311,7 +4312,7 @@
       <c r="A15" s="30">
         <v>12</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="76" t="s">
         <v>136</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -4327,7 +4328,7 @@
       <c r="A16" s="30">
         <v>13</v>
       </c>
-      <c r="B16" s="58"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="21" t="s">
         <v>138</v>
       </c>
@@ -4341,7 +4342,7 @@
       <c r="A17" s="30">
         <v>14</v>
       </c>
-      <c r="B17" s="58"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="21" t="s">
         <v>139</v>
       </c>
@@ -4355,7 +4356,7 @@
       <c r="A18" s="30">
         <v>15</v>
       </c>
-      <c r="B18" s="58"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="21" t="s">
         <v>140</v>
       </c>
@@ -4369,7 +4370,7 @@
       <c r="A19" s="30">
         <v>16</v>
       </c>
-      <c r="B19" s="58"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="21" t="s">
         <v>141</v>
       </c>
@@ -4383,7 +4384,7 @@
       <c r="A20" s="30">
         <v>17</v>
       </c>
-      <c r="B20" s="58"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="21" t="s">
         <v>142</v>
       </c>
@@ -4397,7 +4398,7 @@
       <c r="A21" s="30">
         <v>18</v>
       </c>
-      <c r="B21" s="58"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="25" t="s">
         <v>143</v>
       </c>
@@ -4407,18 +4408,18 @@
       <c r="E21" s="30"/>
       <c r="F21" s="33"/>
     </row>
-    <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>19</v>
       </c>
-      <c r="B22" s="58"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="18" t="s">
         <v>145</v>
       </c>
       <c r="F22" s="33"/>
@@ -4427,7 +4428,7 @@
       <c r="A23" s="30">
         <v>20</v>
       </c>
-      <c r="B23" s="58"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="25" t="s">
         <v>146</v>
       </c>
@@ -4441,7 +4442,7 @@
       <c r="A24" s="30">
         <v>21</v>
       </c>
-      <c r="B24" s="58"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="25" t="s">
         <v>147</v>
       </c>
@@ -4451,11 +4452,11 @@
       <c r="E24" s="30"/>
       <c r="F24" s="33"/>
     </row>
-    <row r="25" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>22</v>
       </c>
-      <c r="B25" s="58"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="25" t="s">
         <v>148</v>
       </c>
@@ -4465,11 +4466,11 @@
       <c r="E25" s="30"/>
       <c r="F25" s="33"/>
     </row>
-    <row r="26" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>23</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="25" t="s">
         <v>149</v>
       </c>
@@ -4483,11 +4484,11 @@
       <c r="A27" s="30">
         <v>24</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="76" t="s">
         <v>150</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>9</v>
@@ -4499,9 +4500,9 @@
       <c r="A28" s="30">
         <v>25</v>
       </c>
-      <c r="B28" s="79"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="8" t="s">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>9</v>
@@ -4512,262 +4513,262 @@
       <c r="A29" s="30">
         <v>26</v>
       </c>
-      <c r="B29" s="79"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="8" t="s">
-        <v>153</v>
+        <v>251</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>27</v>
       </c>
-      <c r="B30" s="79"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="21" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="13"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>28</v>
       </c>
-      <c r="B31" s="79"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="21" t="s">
-        <v>155</v>
+        <v>253</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="13"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>29</v>
       </c>
-      <c r="B32" s="79"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="21" t="s">
-        <v>156</v>
+        <v>254</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="13"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>30</v>
       </c>
-      <c r="B33" s="79"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="21" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>31</v>
       </c>
-      <c r="B34" s="79"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="21" t="s">
-        <v>159</v>
+        <v>255</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="13"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>32</v>
       </c>
-      <c r="B35" s="79"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="21" t="s">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>33</v>
       </c>
-      <c r="B36" s="79"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="17" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>34</v>
       </c>
-      <c r="B37" s="79"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="17" t="s">
-        <v>162</v>
+        <v>258</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="13"/>
     </row>
-    <row r="38" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>35</v>
       </c>
-      <c r="B38" s="79"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="17" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="13"/>
     </row>
-    <row r="39" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>36</v>
       </c>
-      <c r="B39" s="79"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="17" t="s">
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="13"/>
     </row>
-    <row r="40" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>37</v>
       </c>
-      <c r="B40" s="79"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="17" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="13"/>
     </row>
-    <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>38</v>
       </c>
-      <c r="B41" s="79"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="17" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="13"/>
     </row>
-    <row r="42" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="29.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>39</v>
       </c>
-      <c r="B42" s="79"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="17" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>40</v>
       </c>
-      <c r="B43" s="79"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="17" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="13"/>
     </row>
-    <row r="44" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>41</v>
       </c>
-      <c r="B44" s="79"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="17" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>42</v>
       </c>
-      <c r="B45" s="79"/>
+      <c r="B45" s="72"/>
       <c r="C45" s="17" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="13"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>43</v>
       </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="14" t="s">
-        <v>171</v>
+      <c r="B46" s="72"/>
+      <c r="C46" s="37" t="s">
+        <v>266</v>
       </c>
       <c r="D46" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="13"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>44</v>
       </c>
-      <c r="B47" s="79"/>
-      <c r="C47" s="14" t="s">
-        <v>172</v>
+      <c r="B47" s="72"/>
+      <c r="C47" s="37" t="s">
+        <v>267</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="13"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>45</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="73"/>
       <c r="C48" s="17" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="D48" s="22" t="s">
         <v>9</v>
@@ -4778,39 +4779,39 @@
       <c r="A49" s="30">
         <v>46</v>
       </c>
-      <c r="B49" s="64" t="s">
-        <v>174</v>
+      <c r="B49" s="83" t="s">
+        <v>155</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="13"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>47</v>
       </c>
-      <c r="B50" s="58"/>
+      <c r="B50" s="84"/>
       <c r="C50" s="17" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>48</v>
       </c>
-      <c r="B51" s="58"/>
+      <c r="B51" s="84"/>
       <c r="C51" s="17" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>9</v>
@@ -4821,9 +4822,9 @@
       <c r="A52" s="30">
         <v>49</v>
       </c>
-      <c r="B52" s="58"/>
+      <c r="B52" s="84"/>
       <c r="C52" s="17" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>9</v>
@@ -4834,9 +4835,9 @@
       <c r="A53" s="30">
         <v>50</v>
       </c>
-      <c r="B53" s="58"/>
+      <c r="B53" s="84"/>
       <c r="C53" s="17" t="s">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="D53" s="22" t="s">
         <v>9</v>
@@ -4847,37 +4848,37 @@
       <c r="A54" s="30">
         <v>51</v>
       </c>
-      <c r="B54" s="58"/>
+      <c r="B54" s="84"/>
       <c r="C54" s="17" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D54" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="13"/>
     </row>
-    <row r="55" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>52</v>
       </c>
-      <c r="B55" s="58"/>
+      <c r="B55" s="84"/>
       <c r="C55" s="17" t="s">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="D55" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>53</v>
       </c>
-      <c r="B56" s="58"/>
+      <c r="B56" s="84"/>
       <c r="C56" s="17" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D56" s="22" t="s">
         <v>9</v>
@@ -4888,9 +4889,9 @@
       <c r="A57" s="30">
         <v>54</v>
       </c>
-      <c r="B57" s="58"/>
+      <c r="B57" s="84"/>
       <c r="C57" s="17" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D57" s="22" t="s">
         <v>9</v>
@@ -4901,106 +4902,102 @@
       <c r="A58" s="30">
         <v>55</v>
       </c>
-      <c r="B58" s="58"/>
+      <c r="B58" s="84"/>
       <c r="C58" s="17" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D58" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="13"/>
     </row>
-    <row r="59" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>56</v>
       </c>
-      <c r="B59" s="58"/>
+      <c r="B59" s="84"/>
       <c r="C59" s="17" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="13"/>
     </row>
-    <row r="60" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="30">
+    <row r="60" spans="1:5" s="53" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A60" s="30"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="30">
         <v>57</v>
       </c>
-      <c r="B60" s="58"/>
-      <c r="C60" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="30">
-        <v>58</v>
-      </c>
-      <c r="B61" s="58"/>
+      <c r="B61" s="84"/>
       <c r="C61" s="17" t="s">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A62" s="30">
+        <v>58</v>
+      </c>
+      <c r="B62" s="84"/>
+      <c r="C62" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="16"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="30">
         <v>59</v>
       </c>
-      <c r="B62" s="58"/>
-      <c r="C62" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="13"/>
-    </row>
-    <row r="63" spans="1:5" ht="35.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="30">
+      <c r="B63" s="84"/>
+      <c r="C63" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="13"/>
+    </row>
+    <row r="64" spans="1:5" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="30">
         <v>60</v>
       </c>
-      <c r="B63" s="58"/>
-      <c r="C63" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="D63" s="23" t="s">
+      <c r="B64" s="84"/>
+      <c r="C64" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D64" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E63" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="30">
+      <c r="E64" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="30">
         <v>61</v>
       </c>
-      <c r="B64" s="58"/>
-      <c r="C64" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="13"/>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="30">
-        <v>62</v>
-      </c>
-      <c r="B65" s="58"/>
+      <c r="B65" s="84"/>
       <c r="C65" s="17" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="D65" s="22" t="s">
         <v>9</v>
@@ -5009,11 +5006,11 @@
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30">
-        <v>63</v>
-      </c>
-      <c r="B66" s="58"/>
+        <v>62</v>
+      </c>
+      <c r="B66" s="84"/>
       <c r="C66" s="17" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>9</v>
@@ -5022,11 +5019,11 @@
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="30">
-        <v>64</v>
-      </c>
-      <c r="B67" s="58"/>
+        <v>63</v>
+      </c>
+      <c r="B67" s="84"/>
       <c r="C67" s="17" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="D67" s="22" t="s">
         <v>9</v>
@@ -5035,25 +5032,37 @@
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="30">
+        <v>64</v>
+      </c>
+      <c r="B68" s="84"/>
+      <c r="C68" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="13"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="30">
         <v>65</v>
       </c>
-      <c r="B68" s="59"/>
-      <c r="C68" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="13"/>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="22"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>9</v>
+      </c>
       <c r="E69" s="13"/>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="13"/>
+    </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5866,9 +5875,10 @@
     <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B49:B68"/>
+    <mergeCell ref="B49:B69"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B14"/>
@@ -5884,9 +5894,8 @@
     <hyperlink ref="E44" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
     <hyperlink ref="E50" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
     <hyperlink ref="E55" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="E60" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="E61" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="E63" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="E64" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="E61" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5900,860 +5909,860 @@
   </sheetPr>
   <dimension ref="A1:I996"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.90625" customWidth="1"/>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
-    <col min="3" max="3" width="34.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="32.90625" customWidth="1"/>
-    <col min="6" max="6" width="30.08984375" customWidth="1"/>
-    <col min="7" max="7" width="21.6328125" customWidth="1"/>
-    <col min="9" max="9" width="45.26953125" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="45.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+    </row>
+    <row r="3" spans="1:9" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="63">
+        <v>1</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="96"/>
+    </row>
+    <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="63">
+        <v>2</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="89"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="84"/>
+    </row>
+    <row r="6" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="63">
+        <v>3</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="89"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="84"/>
+    </row>
+    <row r="7" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="84"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="63">
+        <v>4</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="89"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="84"/>
+    </row>
+    <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="63">
+        <v>5</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="89"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="84"/>
+    </row>
+    <row r="9" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="63">
+        <v>6</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="89"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="84"/>
+    </row>
+    <row r="10" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="63">
+        <v>7</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="89"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="84"/>
+    </row>
+    <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="84"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="43">
+        <v>8</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="84"/>
+    </row>
+    <row r="12" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="84"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="43">
+        <v>9</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="84"/>
+    </row>
+    <row r="13" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="84"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="43">
+        <v>10</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="84"/>
+    </row>
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="84"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="43">
+        <v>11</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="84"/>
+    </row>
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="84"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="43">
+        <v>12</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="84"/>
+    </row>
+    <row r="16" spans="1:9" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="84"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="43">
+        <v>13</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="84"/>
+    </row>
+    <row r="17" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="43">
+        <v>14</v>
+      </c>
+      <c r="E17" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-    </row>
-    <row r="3" spans="1:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="85"/>
+    </row>
+    <row r="18" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="92" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B18" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C18" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="43">
+        <v>1</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="G18" s="94" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="H18" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="F3" s="41" t="s">
+    </row>
+    <row r="19" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="84"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="45">
+        <v>2</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="84"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="84"/>
+    </row>
+    <row r="20" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="84"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="45">
+        <v>3</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" s="84"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="84"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="84"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="45">
+        <v>4</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="84"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="84"/>
+    </row>
+    <row r="22" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="84"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="45">
+        <v>5</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" s="84"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="84"/>
+    </row>
+    <row r="23" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="84"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="45">
+        <v>6</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="84"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="84"/>
+    </row>
+    <row r="24" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="45">
+        <v>7</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="85"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="85"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="B25" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="C25" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="67">
+        <v>1</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="93" t="s">
         <v>205</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="G25" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="H25" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="97" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+    <row r="26" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="84"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="67">
+        <v>2</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="89"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="84"/>
+    </row>
+    <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="84"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="67">
+        <v>3</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="89"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="84"/>
+    </row>
+    <row r="28" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="84"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="67">
+        <v>4</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="89"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="84"/>
+    </row>
+    <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="84"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="67">
+        <v>5</v>
+      </c>
+      <c r="E29" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="89"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="84"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="84"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="67">
+        <v>6</v>
+      </c>
+      <c r="E30" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="89"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="84"/>
+    </row>
+    <row r="31" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A31" s="84"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="67">
+        <v>7</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" s="89"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="84"/>
+    </row>
+    <row r="32" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="85"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="67">
+        <v>8</v>
+      </c>
+      <c r="E32" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="90"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="85"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B33" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4" s="93">
+      <c r="C33" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="D33" s="67">
         <v>1</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E33" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="F33" s="93" t="s">
         <v>209</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="G33" s="94" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="H33" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="H4" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="69"/>
-    </row>
-    <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="93">
+    </row>
+    <row r="34" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="84"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="67">
         <v>2</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E34" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="F34" s="89"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="84"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="84"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="67">
+        <v>3</v>
+      </c>
+      <c r="E35" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" s="89"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="84"/>
+    </row>
+    <row r="36" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="84"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="67">
+        <v>4</v>
+      </c>
+      <c r="E36" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="F36" s="89"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="84"/>
+    </row>
+    <row r="37" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="84"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="67">
+        <v>5</v>
+      </c>
+      <c r="E37" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="89"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="84"/>
+    </row>
+    <row r="38" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="84"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="67">
+        <v>6</v>
+      </c>
+      <c r="E38" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="F38" s="89"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="84"/>
+    </row>
+    <row r="39" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A39" s="84"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="67">
+        <v>7</v>
+      </c>
+      <c r="E39" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39" s="89"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="84"/>
+    </row>
+    <row r="40" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="84"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="67">
+        <v>8</v>
+      </c>
+      <c r="E40" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" s="89"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="84"/>
+    </row>
+    <row r="41" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="84"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="45">
+        <v>9</v>
+      </c>
+      <c r="E41" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="F41" s="84"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="84"/>
+    </row>
+    <row r="42" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="84"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="45">
+        <v>10</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" s="84"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="84"/>
+    </row>
+    <row r="43" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="84"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="45">
+        <v>11</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F43" s="84"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="84"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="45">
+        <v>12</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="F44" s="84"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="84"/>
+    </row>
+    <row r="45" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="84"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="45">
+        <v>13</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="F45" s="84"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="84"/>
+    </row>
+    <row r="46" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="84"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="45">
+        <v>14</v>
+      </c>
+      <c r="E46" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="58"/>
-    </row>
-    <row r="6" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="93">
+      <c r="F46" s="84"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="84"/>
+    </row>
+    <row r="47" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="84"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="45">
+        <v>15</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="F47" s="84"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="84"/>
+    </row>
+    <row r="48" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="85"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="45">
+        <v>16</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="F48" s="85"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="85"/>
+    </row>
+    <row r="49" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="C49" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="D49" s="45">
+        <v>1</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="F49" s="94" t="s">
+        <v>216</v>
+      </c>
+      <c r="G49" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="H49" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="I49" s="91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="84"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="45">
+        <v>2</v>
+      </c>
+      <c r="E50" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="F50" s="84"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="84"/>
+    </row>
+    <row r="51" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="85"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="45">
         <v>3</v>
       </c>
-      <c r="E6" s="96" t="s">
-        <v>213</v>
-      </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="58"/>
-    </row>
-    <row r="7" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="93">
-        <v>4</v>
-      </c>
-      <c r="E7" s="97" t="s">
-        <v>275</v>
-      </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="58"/>
-    </row>
-    <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="93">
-        <v>5</v>
-      </c>
-      <c r="E8" s="96" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="58"/>
-    </row>
-    <row r="9" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="93">
-        <v>6</v>
-      </c>
-      <c r="E9" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="58"/>
-    </row>
-    <row r="10" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="93">
-        <v>7</v>
-      </c>
-      <c r="E10" s="96" t="s">
-        <v>217</v>
-      </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="58"/>
-    </row>
-    <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="44">
-        <v>8</v>
-      </c>
-      <c r="E11" s="95" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="58"/>
-    </row>
-    <row r="12" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="44">
-        <v>9</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="58"/>
-    </row>
-    <row r="13" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="44">
-        <v>10</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="58"/>
-    </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="44">
-        <v>11</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="58"/>
-    </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="44">
-        <v>12</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="58"/>
-    </row>
-    <row r="16" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="44">
-        <v>13</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="58"/>
-    </row>
-    <row r="17" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="44">
-        <v>14</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="59"/>
-    </row>
-    <row r="18" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A18" s="70" t="s">
-        <v>225</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="D18" s="44">
-        <v>1</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="F18" s="65" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="65" t="s">
-        <v>228</v>
-      </c>
-      <c r="H18" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="67" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="46">
-        <v>2</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="58"/>
-    </row>
-    <row r="20" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="46">
-        <v>3</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="58"/>
-    </row>
-    <row r="21" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="46">
-        <v>4</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="58"/>
-    </row>
-    <row r="22" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="46">
-        <v>5</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="58"/>
-    </row>
-    <row r="23" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="46">
-        <v>6</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="58"/>
-    </row>
-    <row r="24" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="46">
-        <v>7</v>
-      </c>
-      <c r="E24" s="99" t="s">
-        <v>224</v>
-      </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="59"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>231</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="D25" s="98">
-        <v>1</v>
-      </c>
-      <c r="E25" s="96" t="s">
-        <v>209</v>
-      </c>
-      <c r="F25" s="94" t="s">
-        <v>232</v>
-      </c>
-      <c r="G25" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="H25" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="67" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="98">
-        <v>2</v>
-      </c>
-      <c r="E26" s="96" t="s">
-        <v>212</v>
-      </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="58"/>
-    </row>
-    <row r="27" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="98">
-        <v>3</v>
-      </c>
-      <c r="E27" s="96" t="s">
-        <v>213</v>
-      </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="58"/>
-    </row>
-    <row r="28" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="98">
-        <v>4</v>
-      </c>
-      <c r="E28" s="96" t="s">
-        <v>214</v>
-      </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="58"/>
-    </row>
-    <row r="29" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="98">
-        <v>5</v>
-      </c>
-      <c r="E29" s="96" t="s">
-        <v>215</v>
-      </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="58"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="98">
-        <v>6</v>
-      </c>
-      <c r="E30" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="58"/>
-    </row>
-    <row r="31" spans="1:9" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="98">
-        <v>7</v>
-      </c>
-      <c r="E31" s="96" t="s">
-        <v>217</v>
-      </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="58"/>
-    </row>
-    <row r="32" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="98">
-        <v>8</v>
-      </c>
-      <c r="E32" s="96" t="s">
-        <v>224</v>
-      </c>
-      <c r="F32" s="57"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="59"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="B33" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="D33" s="98">
-        <v>1</v>
-      </c>
-      <c r="E33" s="96" t="s">
-        <v>209</v>
-      </c>
-      <c r="F33" s="94" t="s">
-        <v>236</v>
-      </c>
-      <c r="G33" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="H33" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="I33" s="71" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="98">
-        <v>2</v>
-      </c>
-      <c r="E34" s="96" t="s">
-        <v>212</v>
-      </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="58"/>
-    </row>
-    <row r="35" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="98">
-        <v>3</v>
-      </c>
-      <c r="E35" s="96" t="s">
-        <v>213</v>
-      </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="58"/>
-    </row>
-    <row r="36" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="98">
-        <v>4</v>
-      </c>
-      <c r="E36" s="97" t="s">
-        <v>275</v>
-      </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="58"/>
-    </row>
-    <row r="37" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="98">
-        <v>5</v>
-      </c>
-      <c r="E37" s="96" t="s">
-        <v>215</v>
-      </c>
-      <c r="F37" s="56"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="58"/>
-    </row>
-    <row r="38" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="98">
-        <v>6</v>
-      </c>
-      <c r="E38" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="F38" s="56"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="58"/>
-    </row>
-    <row r="39" spans="1:9" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="98">
-        <v>7</v>
-      </c>
-      <c r="E39" s="96" t="s">
-        <v>217</v>
-      </c>
-      <c r="F39" s="56"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="58"/>
-    </row>
-    <row r="40" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="98">
-        <v>8</v>
-      </c>
-      <c r="E40" s="96" t="s">
-        <v>218</v>
-      </c>
-      <c r="F40" s="56"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="58"/>
-    </row>
-    <row r="41" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="46">
-        <v>9</v>
-      </c>
-      <c r="E41" s="95" t="s">
-        <v>219</v>
-      </c>
-      <c r="F41" s="58"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="58"/>
-    </row>
-    <row r="42" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="46">
-        <v>10</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="F42" s="58"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="58"/>
-    </row>
-    <row r="43" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="46">
-        <v>11</v>
-      </c>
-      <c r="E43" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="F43" s="58"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="58"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="46">
-        <v>12</v>
-      </c>
-      <c r="E44" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="F44" s="58"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="58"/>
-    </row>
-    <row r="45" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="46">
-        <v>13</v>
-      </c>
-      <c r="E45" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="F45" s="58"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="58"/>
-    </row>
-    <row r="46" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="46">
-        <v>14</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="F46" s="58"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="58"/>
-    </row>
-    <row r="47" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="46">
-        <v>15</v>
-      </c>
-      <c r="E47" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="F47" s="58"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="58"/>
-    </row>
-    <row r="48" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="46">
-        <v>16</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="F48" s="59"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="59"/>
-    </row>
-    <row r="49" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A49" s="70" t="s">
-        <v>241</v>
-      </c>
-      <c r="B49" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="C49" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="D49" s="46">
-        <v>1</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="F49" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="G49" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="H49" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="I49" s="71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="46">
-        <v>2</v>
-      </c>
-      <c r="E50" s="100" t="s">
-        <v>254</v>
-      </c>
-      <c r="F50" s="58"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="58"/>
-    </row>
-    <row r="51" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="46">
-        <v>3</v>
-      </c>
-      <c r="E51" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="F51" s="59"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="59"/>
+      <c r="E51" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" s="85"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="85"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7702,6 +7711,28 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="F18:F24"/>
+    <mergeCell ref="G18:G24"/>
+    <mergeCell ref="H18:H24"/>
+    <mergeCell ref="I18:I24"/>
+    <mergeCell ref="F25:F32"/>
+    <mergeCell ref="G25:G32"/>
+    <mergeCell ref="H25:H32"/>
+    <mergeCell ref="I25:I32"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="C4:C17"/>
+    <mergeCell ref="F4:F17"/>
+    <mergeCell ref="G4:G17"/>
+    <mergeCell ref="H4:H17"/>
+    <mergeCell ref="I4:I17"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="C25:C32"/>
     <mergeCell ref="H49:H51"/>
     <mergeCell ref="I49:I51"/>
     <mergeCell ref="A33:A48"/>
@@ -7716,28 +7747,6 @@
     <mergeCell ref="C49:C51"/>
     <mergeCell ref="F49:F51"/>
     <mergeCell ref="G49:G51"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="C4:C17"/>
-    <mergeCell ref="F4:F17"/>
-    <mergeCell ref="G4:G17"/>
-    <mergeCell ref="H4:H17"/>
-    <mergeCell ref="I4:I17"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="F18:F24"/>
-    <mergeCell ref="G18:G24"/>
-    <mergeCell ref="H18:H24"/>
-    <mergeCell ref="I18:I24"/>
-    <mergeCell ref="F25:F32"/>
-    <mergeCell ref="G25:G32"/>
-    <mergeCell ref="H25:H32"/>
-    <mergeCell ref="I25:I32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I18" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -7757,1058 +7766,1058 @@
   </sheetPr>
   <dimension ref="A1:I1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="C49" sqref="C49:C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.90625" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" customWidth="1"/>
-    <col min="3" max="3" width="32.6328125" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" customWidth="1"/>
-    <col min="5" max="5" width="35.36328125" customWidth="1"/>
-    <col min="6" max="6" width="23.90625" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" customWidth="1"/>
-    <col min="9" max="9" width="54.26953125" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="54.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-    </row>
-    <row r="3" spans="1:9" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+    </row>
+    <row r="3" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="103" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="42">
+        <v>1</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="94" t="s">
+        <v>222</v>
+      </c>
+      <c r="H4" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="106" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="104"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="43">
+        <v>2</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="84"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="84"/>
+    </row>
+    <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="104"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="42">
+        <v>3</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="84"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="84"/>
+    </row>
+    <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="104"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="43">
+        <v>4</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="84"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="84"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="104"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="42">
+        <v>5</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="84"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="84"/>
+    </row>
+    <row r="9" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="104"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="43">
+        <v>6</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="84"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="84"/>
+    </row>
+    <row r="10" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A10" s="104"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="42">
+        <v>7</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="84"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="84"/>
+    </row>
+    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="104"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="43">
+        <v>8</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="84"/>
+    </row>
+    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="104"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="42">
+        <v>9</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="84"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="84"/>
+    </row>
+    <row r="13" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="104"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="43">
+        <v>10</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="84"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="84"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="104"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="42">
+        <v>11</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="84"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="84"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="104"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="43">
+        <v>12</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="84"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="84"/>
+    </row>
+    <row r="16" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="104"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="42">
+        <v>13</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="84"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="84"/>
+    </row>
+    <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="105"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="43">
+        <v>14</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="85"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="85"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="103" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="F3" s="41" t="s">
+      <c r="B18" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="45">
+        <v>1</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="94" t="s">
+        <v>225</v>
+      </c>
+      <c r="G18" s="94" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" s="102" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="91" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="104"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="45">
+        <v>2</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" s="84"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+    </row>
+    <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="104"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="45">
+        <v>3</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="84"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+    </row>
+    <row r="21" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="104"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="45">
+        <v>4</v>
+      </c>
+      <c r="E21" s="70" t="s">
+        <v>247</v>
+      </c>
+      <c r="F21" s="84"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="104"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="45">
+        <v>5</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="84"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="104"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="45">
+        <v>6</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23" s="84"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+    </row>
+    <row r="24" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A24" s="104"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="45">
+        <v>7</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="84"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+    </row>
+    <row r="25" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="104"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="45">
+        <v>8</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" s="84"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+    </row>
+    <row r="26" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="104"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="45">
+        <v>9</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="84"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+    </row>
+    <row r="27" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="104"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="45">
+        <v>10</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="84"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="104"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="45">
+        <v>11</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="84"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="104"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="45">
+        <v>12</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="84"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+    </row>
+    <row r="30" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="104"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="45">
+        <v>13</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" s="84"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+    </row>
+    <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="104"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="45">
+        <v>14</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" s="84"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+    </row>
+    <row r="32" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="104"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="45">
+        <v>15</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="84"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+    </row>
+    <row r="33" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="105"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="45">
+        <v>16</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="85"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="I3" s="42" t="s">
+      <c r="B34" s="101" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="45">
+        <v>1</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F34" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="G34" s="94" t="s">
+        <v>222</v>
+      </c>
+      <c r="H34" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="106" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="99"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="45">
+        <v>2</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+    </row>
+    <row r="36" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="99"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="45">
+        <v>3</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+    </row>
+    <row r="37" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="99"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="45">
+        <v>4</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+    </row>
+    <row r="38" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="99"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="45">
+        <v>5</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+    </row>
+    <row r="39" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="99"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="45">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="E39" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+    </row>
+    <row r="40" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A40" s="99"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="45">
+        <v>7</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+    </row>
+    <row r="41" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="99"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="45">
+        <v>8</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+    </row>
+    <row r="42" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="99"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="45">
+        <v>9</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
+    </row>
+    <row r="43" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="99"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="45">
+        <v>10</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="99"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="45">
+        <v>11</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="99"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="45">
+        <v>12</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+    </row>
+    <row r="46" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="99"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="45">
+        <v>13</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+    </row>
+    <row r="47" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="99"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="45">
+        <v>14</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+    </row>
+    <row r="48" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="100"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="45">
+        <v>15</v>
+      </c>
+      <c r="E48" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="72" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="43">
+      <c r="B49" s="101" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="D49" s="45">
         <v>1</v>
       </c>
-      <c r="E4" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="F4" s="65" t="s">
+      <c r="E49" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F49" s="94" t="s">
+        <v>231</v>
+      </c>
+      <c r="G49" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="H49" s="102" t="s">
+        <v>88</v>
+      </c>
+      <c r="I49" s="91" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="84"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="45">
+        <v>2</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="F50" s="84"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+    </row>
+    <row r="51" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="84"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="45">
+        <v>3</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="F51" s="84"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="84"/>
+    </row>
+    <row r="52" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="84"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="45">
+        <v>4</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" s="84"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="84"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="45">
+        <v>5</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="F53" s="84"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+    </row>
+    <row r="54" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="84"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="45">
+        <v>6</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F54" s="84"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+    </row>
+    <row r="55" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A55" s="84"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="45">
+        <v>7</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="F55" s="84"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="84"/>
+    </row>
+    <row r="56" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A56" s="84"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="45">
+        <v>8</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="F56" s="84"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="84"/>
+    </row>
+    <row r="57" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A57" s="84"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="45">
+        <v>9</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="F57" s="84"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="84"/>
+    </row>
+    <row r="58" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A58" s="84"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="45">
+        <v>10</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="F58" s="84"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="84"/>
+      <c r="I58" s="84"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="84"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="45">
+        <v>11</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F59" s="84"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="84"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="84"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="45">
+        <v>12</v>
+      </c>
+      <c r="E60" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="F60" s="84"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
+    </row>
+    <row r="61" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A61" s="84"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="45">
+        <v>13</v>
+      </c>
+      <c r="E61" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="F61" s="84"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="84"/>
+    </row>
+    <row r="62" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A62" s="84"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="45">
+        <v>14</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F62" s="84"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="84"/>
+      <c r="I62" s="84"/>
+    </row>
+    <row r="63" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="84"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="45">
+        <v>15</v>
+      </c>
+      <c r="E63" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="G4" s="65" t="s">
-        <v>249</v>
-      </c>
-      <c r="H4" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="74" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="44">
-        <v>2</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="58"/>
-    </row>
-    <row r="6" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="43">
-        <v>3</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="58"/>
-    </row>
-    <row r="7" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="44">
-        <v>4</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="58"/>
-    </row>
-    <row r="8" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="43">
-        <v>5</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="58"/>
-    </row>
-    <row r="9" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="44">
-        <v>6</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="58"/>
-    </row>
-    <row r="10" spans="1:9" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="43">
-        <v>7</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="58"/>
-    </row>
-    <row r="11" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="44">
-        <v>8</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="58"/>
-    </row>
-    <row r="12" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="43">
-        <v>9</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="58"/>
-    </row>
-    <row r="13" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="44">
-        <v>10</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="58"/>
-    </row>
-    <row r="14" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="43">
-        <v>11</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="58"/>
-    </row>
-    <row r="15" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="44">
-        <v>12</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="58"/>
-    </row>
-    <row r="16" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="43">
-        <v>13</v>
-      </c>
-      <c r="E16" s="101" t="s">
-        <v>223</v>
-      </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="58"/>
-    </row>
-    <row r="17" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="44">
-        <v>14</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="59"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="105" t="s">
-        <v>225</v>
-      </c>
-      <c r="B18" s="72" t="s">
-        <v>251</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="D18" s="46">
-        <v>1</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="F18" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="G18" s="65" t="s">
-        <v>249</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" s="71" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="46">
-        <v>2</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-    </row>
-    <row r="20" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="46">
-        <v>3</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-    </row>
-    <row r="21" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="46">
-        <v>4</v>
-      </c>
-      <c r="E21" s="101" t="s">
-        <v>275</v>
-      </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="46">
-        <v>5</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="46">
-        <v>6</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-    </row>
-    <row r="24" spans="1:9" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="106"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="46">
-        <v>7</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-    </row>
-    <row r="25" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A25" s="106"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="46">
-        <v>8</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-    </row>
-    <row r="26" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="46">
-        <v>9</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-    </row>
-    <row r="27" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="106"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="46">
-        <v>10</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="106"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="46">
-        <v>11</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="F28" s="58"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="106"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="46">
-        <v>12</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-    </row>
-    <row r="30" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A30" s="106"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="46">
-        <v>13</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-    </row>
-    <row r="31" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A31" s="106"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="46">
-        <v>14</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-    </row>
-    <row r="32" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A32" s="106"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="46">
-        <v>15</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="F32" s="58"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-    </row>
-    <row r="33" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A33" s="107"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="46">
+      <c r="F63" s="84"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="84"/>
+    </row>
+    <row r="64" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="84"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="45">
         <v>16</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="F33" s="59"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="102" t="s">
-        <v>230</v>
-      </c>
-      <c r="B34" s="72" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="D34" s="46">
-        <v>1</v>
-      </c>
-      <c r="E34" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="F34" s="65" t="s">
-        <v>256</v>
-      </c>
-      <c r="G34" s="65" t="s">
-        <v>249</v>
-      </c>
-      <c r="H34" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" s="74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A35" s="103"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="46">
-        <v>2</v>
-      </c>
-      <c r="E35" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-    </row>
-    <row r="36" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="103"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="46">
-        <v>3</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-    </row>
-    <row r="37" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A37" s="103"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="46">
-        <v>4</v>
-      </c>
-      <c r="E37" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-    </row>
-    <row r="38" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="103"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="46">
-        <v>5</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-    </row>
-    <row r="39" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="103"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="46">
-        <v>6</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-    </row>
-    <row r="40" spans="1:9" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="103"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="46">
-        <v>7</v>
-      </c>
-      <c r="E40" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-    </row>
-    <row r="41" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A41" s="103"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="46">
-        <v>8</v>
-      </c>
-      <c r="E41" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-    </row>
-    <row r="42" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A42" s="103"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="46">
-        <v>9</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-    </row>
-    <row r="43" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="103"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="46">
-        <v>10</v>
-      </c>
-      <c r="E43" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="103"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="46">
-        <v>11</v>
-      </c>
-      <c r="E44" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="103"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="46">
-        <v>12</v>
-      </c>
-      <c r="E45" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-    </row>
-    <row r="46" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A46" s="103"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="46">
-        <v>13</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-    </row>
-    <row r="47" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A47" s="103"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="46">
-        <v>14</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-    </row>
-    <row r="48" spans="1:9" ht="50" x14ac:dyDescent="0.25">
-      <c r="A48" s="104"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="46">
-        <v>15</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="70" t="s">
+      <c r="E64" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="F64" s="84"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="84"/>
+    </row>
+    <row r="65" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A65" s="85"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="45">
+        <v>17</v>
+      </c>
+      <c r="E65" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="B49" s="72" t="s">
-        <v>257</v>
-      </c>
-      <c r="C49" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="D49" s="46">
-        <v>1</v>
-      </c>
-      <c r="E49" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="F49" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="G49" s="65" t="s">
-        <v>259</v>
-      </c>
-      <c r="H49" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="I49" s="71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="46">
-        <v>2</v>
-      </c>
-      <c r="E50" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="F50" s="58"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-    </row>
-    <row r="51" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="46">
-        <v>3</v>
-      </c>
-      <c r="E51" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="F51" s="58"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-    </row>
-    <row r="52" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="46">
-        <v>4</v>
-      </c>
-      <c r="E52" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="F52" s="58"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="46">
-        <v>5</v>
-      </c>
-      <c r="E53" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="F53" s="58"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-    </row>
-    <row r="54" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="46">
-        <v>6</v>
-      </c>
-      <c r="E54" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="F54" s="58"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-    </row>
-    <row r="55" spans="1:9" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="46">
-        <v>7</v>
-      </c>
-      <c r="E55" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="F55" s="58"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-    </row>
-    <row r="56" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="46">
-        <v>8</v>
-      </c>
-      <c r="E56" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="F56" s="58"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-    </row>
-    <row r="57" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="46">
-        <v>9</v>
-      </c>
-      <c r="E57" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="F57" s="58"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-    </row>
-    <row r="58" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="46">
-        <v>10</v>
-      </c>
-      <c r="E58" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="F58" s="58"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="103"/>
-      <c r="D59" s="46">
-        <v>11</v>
-      </c>
-      <c r="E59" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="F59" s="58"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="46">
-        <v>12</v>
-      </c>
-      <c r="E60" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="F60" s="58"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-    </row>
-    <row r="61" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="103"/>
-      <c r="D61" s="46">
-        <v>13</v>
-      </c>
-      <c r="E61" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="F61" s="58"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="58"/>
-    </row>
-    <row r="62" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="46">
-        <v>14</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="F62" s="58"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
-    </row>
-    <row r="63" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="58"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="103"/>
-      <c r="D63" s="46">
-        <v>15</v>
-      </c>
-      <c r="E63" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="F63" s="58"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
-    </row>
-    <row r="64" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="103"/>
-      <c r="D64" s="46">
-        <v>16</v>
-      </c>
-      <c r="E64" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="F64" s="58"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
-    </row>
-    <row r="65" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="104"/>
-      <c r="D65" s="46">
-        <v>17</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="85"/>
+      <c r="I65" s="85"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9751,6 +9760,19 @@
     <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="C4:C17"/>
+    <mergeCell ref="F4:F17"/>
+    <mergeCell ref="G4:G17"/>
+    <mergeCell ref="H4:H17"/>
+    <mergeCell ref="I4:I17"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="B18:B33"/>
+    <mergeCell ref="C18:C33"/>
+    <mergeCell ref="F18:F33"/>
+    <mergeCell ref="G18:G33"/>
+    <mergeCell ref="H18:H33"/>
     <mergeCell ref="I18:I33"/>
     <mergeCell ref="A34:A48"/>
     <mergeCell ref="A49:A65"/>
@@ -9767,19 +9789,6 @@
     <mergeCell ref="G34:G48"/>
     <mergeCell ref="H34:H48"/>
     <mergeCell ref="I34:I48"/>
-    <mergeCell ref="B18:B33"/>
-    <mergeCell ref="C18:C33"/>
-    <mergeCell ref="F18:F33"/>
-    <mergeCell ref="G18:G33"/>
-    <mergeCell ref="H18:H33"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="C4:C17"/>
-    <mergeCell ref="F4:F17"/>
-    <mergeCell ref="G4:G17"/>
-    <mergeCell ref="H4:H17"/>
-    <mergeCell ref="I4:I17"/>
-    <mergeCell ref="A4:A17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -9803,24 +9812,24 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.90625" customWidth="1"/>
-    <col min="2" max="2" width="99.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
-    <col min="4" max="4" width="34.08984375" customWidth="1"/>
-    <col min="5" max="5" width="22.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="99.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -9828,17 +9837,17 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" ht="52" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="D3" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9847,7 +9856,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>9</v>
@@ -9860,20 +9869,20 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="52"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>9</v>
@@ -9885,7 +9894,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>9</v>
@@ -9897,25 +9906,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>6</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="52" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9923,7 +9932,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>9</v>
